--- a/nr-update-cs-with-modifiers/ig/ValueSet-as-vs-type-etablissement.xlsx
+++ b/nr-update-cs-with-modifiers/ig/ValueSet-as-vs-type-etablissement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-13T12:20:40+00:00</t>
+    <t>2025-08-13T13:02:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-cs-with-modifiers/ig/ValueSet-as-vs-type-etablissement.xlsx
+++ b/nr-update-cs-with-modifiers/ig/ValueSet-as-vs-type-etablissement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-13T13:02:31+00:00</t>
+    <t>2025-08-13T14:43:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-cs-with-modifiers/ig/ValueSet-as-vs-type-etablissement.xlsx
+++ b/nr-update-cs-with-modifiers/ig/ValueSet-as-vs-type-etablissement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-13T14:43:09+00:00</t>
+    <t>2025-08-13T14:44:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-cs-with-modifiers/ig/ValueSet-as-vs-type-etablissement.xlsx
+++ b/nr-update-cs-with-modifiers/ig/ValueSet-as-vs-type-etablissement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-13T14:44:38+00:00</t>
+    <t>2025-08-13T14:52:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
